--- a/Plan/Data_추출파일/010.아이템테이블.xlsx
+++ b/Plan/Data_추출파일/010.아이템테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E9E547-677B-4951-8827-FC294C5B256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{545DB8D1-35D6-4E26-8802-B4FA67EC8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7903F11-01BE-4C55-86B0-B9EFEF66CED1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBBDBB09-B82C-4A7D-8456-58F10A6E5999}"/>
   </bookViews>
   <sheets>
     <sheet name="010.아이템테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>hintPole</t>
+  </si>
+  <si>
+    <t>timeStop</t>
+  </si>
+  <si>
+    <t>protectionBridge</t>
   </si>
 </sst>
 </file>
@@ -408,8 +417,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C66C66-37F5-40D2-8913-43878BB24A5A}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9655A5-8595-4850-A2FA-2C6C472FA1FB}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
@@ -431,6 +440,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/Data_추출파일/010.아이템테이블.xlsx
+++ b/Plan/Data_추출파일/010.아이템테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545DB8D1-35D6-4E26-8802-B4FA67EC8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC5E11E-7030-46C8-AACE-CD4A14495517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBBDBB09-B82C-4A7D-8456-58F10A6E5999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D93ED63-3D1C-470D-A231-90FC77ACA1CC}"/>
   </bookViews>
   <sheets>
     <sheet name="010.아이템테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>name_id</t>
+  </si>
+  <si>
+    <t>des_id</t>
   </si>
   <si>
     <t>hintPole</t>
@@ -417,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9655A5-8595-4850-A2FA-2C6C472FA1FB}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56F770-3489-4840-8B3B-92DA7A0624B3}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,13 +445,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -454,12 +466,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -468,12 +480,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
